--- a/Excel_Files/Stats_Populations/1_cm/701_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/701_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002780488599743861</v>
+        <v>0.006013728190075607</v>
       </c>
       <c r="D2">
-        <v>0.0004533396318596888</v>
+        <v>0.00578512036300483</v>
       </c>
       <c r="E2">
-        <v>0.0002493391434097645</v>
+        <v>0.005688213503285787</v>
       </c>
       <c r="F2">
-        <v>0.0002629322541382123</v>
+        <v>0.005476239930676977</v>
       </c>
       <c r="G2">
-        <v>0.0001549163061035128</v>
+        <v>0.005264346217404983</v>
       </c>
       <c r="H2">
-        <v>0.0004533396318596888</v>
+        <v>0.006013728190075607</v>
       </c>
       <c r="I2">
-        <v>0.0004715195119387309</v>
+        <v>0.005953555748778309</v>
       </c>
       <c r="J2">
-        <v>0.0006026223191793422</v>
+        <v>0.006225432654025966</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001311654532495015</v>
+        <v>0.005406301389086697</v>
       </c>
       <c r="D3">
-        <v>0.0003594352798867936</v>
+        <v>0.005354815146134432</v>
       </c>
       <c r="E3">
-        <v>0.0001864592670150743</v>
+        <v>0.005265098960965118</v>
       </c>
       <c r="F3">
-        <v>6.967876245423883E-05</v>
+        <v>0.004648214606667424</v>
       </c>
       <c r="G3">
-        <v>9.830534337445356E-05</v>
+        <v>0.004827664267948814</v>
       </c>
       <c r="H3">
-        <v>0.0001865292545707442</v>
+        <v>0.005252374043407902</v>
       </c>
       <c r="I3">
-        <v>0.0002365119511730864</v>
+        <v>0.005636848637342203</v>
       </c>
       <c r="J3">
-        <v>0.000146641514257509</v>
+        <v>0.005296516261396245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.691373062294357E-05</v>
+        <v>0.004782255248727483</v>
       </c>
       <c r="D4">
-        <v>0.0001498757131822856</v>
+        <v>0.004979155715903396</v>
       </c>
       <c r="E4">
-        <v>0.0001292305121991841</v>
+        <v>0.004972320582081103</v>
       </c>
       <c r="F4">
-        <v>3.948017643208279E-05</v>
+        <v>0.004103219057556209</v>
       </c>
       <c r="G4">
-        <v>3.372342172482982E-05</v>
+        <v>0.004024262264240376</v>
       </c>
       <c r="H4">
-        <v>9.394008294574698E-05</v>
+        <v>0.004764710481305573</v>
       </c>
       <c r="I4">
-        <v>0.0001497225754037091</v>
+        <v>0.005397688775860555</v>
       </c>
       <c r="J4">
-        <v>4.294525313953812E-05</v>
+        <v>0.004438855457606677</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3.61450490007281E-06</v>
+        <v>0.002153806986733226</v>
       </c>
       <c r="D5">
-        <v>4.761215181117091E-06</v>
+        <v>0.002354525916085514</v>
       </c>
       <c r="E5">
-        <v>3.840058967940737E-06</v>
+        <v>0.002196121848082703</v>
       </c>
       <c r="F5">
-        <v>1.828186952609686E-06</v>
+        <v>0.001751022315677348</v>
       </c>
       <c r="G5">
-        <v>9.822215615195406E-07</v>
+        <v>0.00146459114565203</v>
       </c>
       <c r="H5">
-        <v>2.12112451265968E-06</v>
+        <v>0.001837121897095376</v>
       </c>
       <c r="I5">
-        <v>3.113144573445373E-06</v>
+        <v>0.002038797521336233</v>
       </c>
       <c r="J5">
-        <v>2.865377357149587E-06</v>
+        <v>0.001952787879390702</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.169294244522906E-06</v>
+        <v>0.001857215673450091</v>
       </c>
       <c r="D6">
-        <v>2.124443807799163E-06</v>
+        <v>0.001865778246871668</v>
       </c>
       <c r="E6">
-        <v>1.794477133038935E-06</v>
+        <v>0.001743232887289858</v>
       </c>
       <c r="F6">
-        <v>7.643242786331997E-07</v>
+        <v>0.001349312409050064</v>
       </c>
       <c r="G6">
-        <v>5.469571607749232E-07</v>
+        <v>0.001216730854516106</v>
       </c>
       <c r="H6">
-        <v>8.103891288889736E-07</v>
+        <v>0.001372925285591346</v>
       </c>
       <c r="I6">
-        <v>2.042586230918428E-06</v>
+        <v>0.001805247416287122</v>
       </c>
       <c r="J6">
-        <v>1.771080281953493E-06</v>
+        <v>0.001642644799054636</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.293094204077521E-06</v>
+        <v>0.001561710017758516</v>
       </c>
       <c r="D7">
-        <v>7.89014985560172E-07</v>
+        <v>0.001372982643317146</v>
       </c>
       <c r="E7">
-        <v>4.491690561372153E-07</v>
+        <v>0.001122887766920012</v>
       </c>
       <c r="F7">
-        <v>1.778912164116191E-07</v>
+        <v>0.0008283998755143621</v>
       </c>
       <c r="G7">
-        <v>2.35694356968833E-07</v>
+        <v>0.0009413376850543554</v>
       </c>
       <c r="H7">
-        <v>1.778912164116191E-07</v>
+        <v>0.0008283998755143621</v>
       </c>
       <c r="I7">
-        <v>1.215367887249298E-06</v>
+        <v>0.001525035850575129</v>
       </c>
       <c r="J7">
-        <v>9.917580709471013E-07</v>
+        <v>0.001420302036281146</v>
       </c>
     </row>
   </sheetData>
